--- a/RailBiding/ExcelFiles/Companys201889.xlsx
+++ b/RailBiding/ExcelFiles/Companys201889.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>劳务承包企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,49 +48,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深圳市特皓建设基础工程有限公 司限公 司</t>
-  </si>
-  <si>
-    <t>上海世建基础工程有限公司</t>
-  </si>
-  <si>
-    <t>600</t>
+    <t>111</t>
   </si>
   <si>
     <t>围护结构工程</t>
   </si>
   <si>
-    <t>厉害米</t>
-  </si>
-  <si>
     <t>17692713707</t>
   </si>
   <si>
     <t>启用</t>
   </si>
   <si>
-    <t>深圳市建安（集团）股份有限公司</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>里么哦</t>
-  </si>
-  <si>
-    <t>12341241</t>
-  </si>
-  <si>
-    <t>名录外企业1</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>123</t>
+    <t>2222222222222</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>盾构工程</t>
+  </si>
+  <si>
+    <t>法人代表</t>
+  </si>
+  <si>
+    <t>现场负责人</t>
   </si>
 </sst>
 </file>
@@ -182,8 +167,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H4" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H3" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H3"/>
   <tableColumns count="8">
     <tableColumn id="1" name="劳务承包企业名称" dataDxfId="7"/>
     <tableColumn id="2" name="资质等级" dataDxfId="6"/>
@@ -491,18 +476,18 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.89453125" customWidth="1"/>
-    <col min="2" max="2" width="23.9453125" customWidth="1"/>
-    <col min="3" max="3" width="12.5234375" customWidth="1"/>
-    <col min="4" max="4" width="18.47265625" customWidth="1"/>
-    <col min="5" max="5" width="11.62890625" customWidth="1"/>
-    <col min="6" max="6" width="13.68359375" customWidth="1"/>
-    <col min="7" max="7" width="12.578125" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,85 +513,69 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -616,7 +585,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -626,7 +595,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -636,7 +605,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -646,7 +615,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -656,7 +625,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -666,7 +635,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -676,7 +645,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -686,7 +655,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -696,7 +665,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -706,7 +675,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -716,7 +685,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -726,7 +695,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -736,7 +705,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -746,7 +715,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -756,7 +725,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -766,7 +735,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -776,7 +745,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -786,7 +755,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -796,7 +765,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -806,7 +775,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>

--- a/RailBiding/ExcelFiles/Companys201889.xlsx
+++ b/RailBiding/ExcelFiles/Companys201889.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>劳务承包企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,22 +48,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>业名称22</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
+    <t>主体及附属结构工程</t>
+  </si>
+  <si>
+    <t>人代表1</t>
+  </si>
+  <si>
+    <t>负责人1</t>
+  </si>
+  <si>
+    <t>17692713707</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
     <t>围护结构工程</t>
   </si>
   <si>
-    <t>17692713707</t>
-  </si>
-  <si>
-    <t>启用</t>
-  </si>
-  <si>
     <t>2222222222222</t>
-  </si>
-  <si>
-    <t>1111</t>
   </si>
   <si>
     <t>11</t>
@@ -167,8 +179,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H3" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H4" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H4"/>
   <tableColumns count="8">
     <tableColumn id="1" name="劳务承包企业名称" dataDxfId="7"/>
     <tableColumn id="2" name="资质等级" dataDxfId="6"/>
@@ -518,62 +530,78 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
